--- a/R_C14_DADA2/phyloseq/paper_petB_primers/figures_petb compare_2.0/subclade_percent similarity_2.0.xlsx
+++ b/R_C14_DADA2/phyloseq/paper_petB_primers/figures_petb compare_2.0/subclade_percent similarity_2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_DADA2/phyloseq/paper_petB_primers/figures_petb compare_2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124B0C50-EEC5-C043-AEF1-1FE2FD7189E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193D719E-9853-4E45-B42D-3F2F49EF2C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29220" yWindow="3520" windowWidth="25600" windowHeight="14500" xr2:uid="{9C586699-B277-5E4C-AF9C-FF45701C0736}"/>
+    <workbookView xWindow="52160" yWindow="1920" windowWidth="17500" windowHeight="14500" activeTab="2" xr2:uid="{9C586699-B277-5E4C-AF9C-FF45701C0736}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="4" r:id="rId1"/>
@@ -712,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346ADE20-0550-0C43-BB1E-845E1FF621B9}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+    <sheetView zoomScale="88" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -2015,10 +2015,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E145450-D9C0-734D-AE64-200144E6B4CE}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2026,7 +2026,7 @@
     <col min="1" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -2035,11 +2035,11 @@
       <c r="D1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2058,14 +2058,14 @@
       <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2084,14 +2084,15 @@
       <c r="F3" s="16">
         <v>91.9</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2110,14 +2111,15 @@
       <c r="F4" s="16">
         <v>91.9</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="I4" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2136,14 +2138,15 @@
       <c r="F5" s="16">
         <v>91.9</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2162,14 +2165,15 @@
       <c r="F6" s="16">
         <v>91.6</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2186,14 +2190,15 @@
       <c r="F7" s="16">
         <v>91.6</v>
       </c>
-      <c r="G7" s="17">
-        <v>100</v>
-      </c>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="17">
+        <v>100</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2210,194 +2215,203 @@
       <c r="F8" s="16">
         <v>94.7</v>
       </c>
-      <c r="G8" s="17">
-        <v>100</v>
-      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="14">
-        <v>13</v>
-      </c>
-      <c r="D9" s="14">
-        <v>91.3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="16">
-        <v>96.9</v>
+        <v>30.5</v>
       </c>
       <c r="F9" s="16">
-        <v>92.7</v>
-      </c>
-      <c r="G9" s="17">
-        <v>100</v>
-      </c>
-      <c r="H9" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>11</v>
+        <v>87.7</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" s="14">
-        <v>92.8</v>
-      </c>
-      <c r="E10" s="16"/>
+        <v>91.3</v>
+      </c>
+      <c r="E10" s="16">
+        <v>96.9</v>
+      </c>
       <c r="F10" s="16">
-        <v>89.7</v>
-      </c>
-      <c r="G10" s="17"/>
+        <v>92.7</v>
+      </c>
+      <c r="G10" s="16"/>
       <c r="H10" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" s="14">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D11" s="14">
-        <v>92.9</v>
-      </c>
-      <c r="E11" s="16"/>
+        <v>94.7</v>
+      </c>
+      <c r="E11" s="16">
+        <v>95</v>
+      </c>
       <c r="F11" s="16">
-        <v>90.8</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>92.3</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>25.9</v>
+      </c>
+      <c r="F12" s="16">
+        <v>85.9</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="14">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14">
+        <v>92.9</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16">
+        <v>90.8</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C14" s="14">
         <v>4</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D14" s="14">
         <v>98.1</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16">
         <v>93.2</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="14">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>30.5</v>
-      </c>
-      <c r="F13" s="16">
-        <v>87.7</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="14">
-        <v>18</v>
-      </c>
-      <c r="D14" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="E14" s="16">
-        <v>95</v>
-      </c>
-      <c r="F14" s="16">
-        <v>92.3</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="14">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D15" s="14">
-        <v>97.6</v>
+        <v>92.8</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16">
+        <v>89.7</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="14">
+        <v>20</v>
+      </c>
+      <c r="D16" s="14">
+        <v>97.6</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16">
         <v>92.5</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>25.9</v>
-      </c>
-      <c r="F16" s="16">
-        <v>85.9</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -2414,14 +2428,15 @@
       <c r="F17" s="16">
         <v>87.4</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2438,12 +2453,13 @@
         <v>99.8</v>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="17">
-        <v>100</v>
-      </c>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="16"/>
+      <c r="H18" s="17">
+        <v>100</v>
+      </c>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -2460,12 +2476,13 @@
         <v>53</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="16">
-        <v>100</v>
-      </c>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16">
+        <v>100</v>
+      </c>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2473,11 +2490,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="I20" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2489,7 +2502,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2636,58 +2649,60 @@
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11">
+        <v>30.5</v>
+      </c>
+      <c r="F8" s="11">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C9" s="8">
         <v>13</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="8">
         <v>91.3</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="11">
         <v>96.9</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="11">
         <v>92.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8">
-        <v>11</v>
-      </c>
-      <c r="D9" s="8">
-        <v>92.8</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="11">
-        <v>89.7</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" s="8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D10" s="8">
-        <v>92.9</v>
-      </c>
-      <c r="E10" s="8"/>
+        <v>94.7</v>
+      </c>
+      <c r="E10" s="11">
+        <v>95</v>
+      </c>
       <c r="F10" s="11">
-        <v>90.8</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2695,91 +2710,89 @@
         <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8">
-        <v>98.1</v>
-      </c>
-      <c r="E11" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11">
+        <v>25.9</v>
+      </c>
       <c r="F11" s="11">
-        <v>93.2</v>
+        <v>85.9</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="11">
-        <v>30.5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D12" s="8">
+        <v>92.9</v>
+      </c>
+      <c r="E12" s="8"/>
       <c r="F12" s="11">
-        <v>87.7</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="8">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D13" s="8">
-        <v>94.7</v>
-      </c>
-      <c r="E13" s="11">
-        <v>95</v>
-      </c>
+        <v>98.1</v>
+      </c>
+      <c r="E13" s="8"/>
       <c r="F13" s="11">
-        <v>92.3</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>18</v>
+      <c r="A14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D14" s="8">
-        <v>97.6</v>
+        <v>92.8</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8">
-        <v>92.5</v>
+      <c r="F14" s="11">
+        <v>89.7</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8">
         <v>20</v>
       </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="11">
-        <v>25.9</v>
-      </c>
-      <c r="F15" s="11">
-        <v>85.9</v>
+      <c r="D15" s="8">
+        <v>97.6</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <v>92.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
